--- a/biology/Botanique/Ocimeae/Ocimeae.xlsx
+++ b/biology/Botanique/Ocimeae/Ocimeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Ocimeae fait partie de la famille des Lamiaceae (Lamiacées) et de la sous-famille des Nepetoïdeae (népétoïdées).
 Elle compte environ 50 genres et 1 000 espèces, et est principalement représentée dans les zones tropicales et subtropicales d'Asie, d'Afrique et d'Amérique du Sud.
@@ -516,7 +528,9 @@
           <t>Genres de cette tribu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres reconnus par Cantino et al. (1992)[réf. souhaitée] sont :
 Acrocephalus, Aeollanthus, Alvesia, Anisochilus, Asterohyptis, Basilicum, Becium, Benguellia, Capitanopsis, Capitanya, Catoferia, Ceratanthus, Dauphinea, Endostemon, Englerastrum, Eriope, Eriopidion, Erythrochlamys, Fuerstia, Geniosporum, Hanceola, Haumaniastrum, Hemizygia, Holostylon, Hoslundia, Hypenia, Hyptidendron, Hyptis, Isodictyophorus, Isodon, Leocus, Marsypianthes, Neohyptis, Nosema, Ocimum, Octomeron, Orthosiphon, Peltodon, Perrierastrum, Platostoma, Plectranthus, Puntia, Pycnostachys, Rabdosiella, Raphiodon, Solenostemon, Symphostemon, Syncolostemon, Tetradenia, Thomcroftia.
@@ -548,9 +562,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (9 juin 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (9 juin 2013) :
 genre Aeollanthus
 genre Alvesia
 genre Anisochilus
